--- a/leagueStats/leagueStats_TOP5_ITA_full.xlsx
+++ b/leagueStats/leagueStats_TOP5_ITA_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13204,6 +13204,1587 @@
         <v>1</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O254" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O257" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O258" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>4</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G268" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N268" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>3</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O274" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G275" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O276" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G279" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
